--- a/data/trans_camb/P43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.867308765411752</v>
+        <v>6.132072030235862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.803634017611484</v>
+        <v>9.346362053928226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.85121503179817</v>
+        <v>11.49621060998412</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.1564666129524</v>
+        <v>16.9786193980174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.47168977040305</v>
+        <v>19.91767785071718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.01608644752433</v>
+        <v>21.88497831827084</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1796834293012125</v>
+        <v>0.163648733807338</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2297765435385963</v>
+        <v>0.2394764807699965</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3102361324486054</v>
+        <v>0.2950646536914502</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5210572307388649</v>
+        <v>0.5149284713302644</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5879764231571607</v>
+        <v>0.6016630530387729</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6688273373175767</v>
+        <v>0.6580214007760241</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>17.17637265695124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13.57216690228778</v>
+        <v>13.57216690228777</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.287847750936094</v>
+        <v>5.365940689911783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.08529448557772</v>
+        <v>12.57401514856475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.912453080201354</v>
+        <v>8.94169363498211</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.50651615499238</v>
+        <v>14.43710983275008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.54193114246235</v>
+        <v>22.23572117354263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.61968580733486</v>
+        <v>18.34383653749979</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.4855117269039054</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3836343285141193</v>
+        <v>0.3836343285141189</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.138991087398425</v>
+        <v>0.141556569238037</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3484847001922107</v>
+        <v>0.3335519408019658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2278874850227333</v>
+        <v>0.2321845333105768</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4371388654581812</v>
+        <v>0.4401243145637343</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6626106897214978</v>
+        <v>0.6742240280920997</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5353575764485202</v>
+        <v>0.5542963848421338</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>4.834833067340261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13.17060365963978</v>
+        <v>13.1706036596398</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.766667934340653</v>
+        <v>3.280883243285922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.05493467465571139</v>
+        <v>0.1206097195675806</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.993877472443249</v>
+        <v>7.537464828325397</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.17699320385733</v>
+        <v>13.851428125995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.938218546655076</v>
+        <v>10.55672323173176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.83646167619057</v>
+        <v>18.15742839210289</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.1242020497518431</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3383397002983359</v>
+        <v>0.3383397002983362</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09046097775937287</v>
+        <v>0.07930470749472306</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.001884672753205974</v>
+        <v>0.002723981595697434</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1958340101221675</v>
+        <v>0.1783418397093721</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.395688755323018</v>
+        <v>0.3879823437397192</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2736359927810759</v>
+        <v>0.2920340818008429</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5202597037351142</v>
+        <v>0.5061387508885853</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>10.83146885578999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.61777547851482</v>
+        <v>14.61777547851483</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.940857144320986</v>
+        <v>2.979188516969232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.456485679794308</v>
+        <v>6.25716537090419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.46223776665282</v>
+        <v>9.973649027768486</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.67637785160154</v>
+        <v>11.72618514298757</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.42812156828207</v>
+        <v>15.19798879855957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.54650321937172</v>
+        <v>18.68517891638549</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.2636936666100236</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3558718457239683</v>
+        <v>0.3558718457239686</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0679072752819016</v>
+        <v>0.06884981091845277</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1485699917065863</v>
+        <v>0.1443420006797486</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2393070010692758</v>
+        <v>0.2307422838172702</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.298734519671853</v>
+        <v>0.3028837022763501</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3945297380461674</v>
+        <v>0.3930315393186187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4998713966347219</v>
+        <v>0.4884919259688425</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.794035992062673</v>
+        <v>6.817150208387714</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.602261304064607</v>
+        <v>9.589216384432344</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.12774062853585</v>
+        <v>11.98869196629258</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.65997302507998</v>
+        <v>11.58701693193305</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.20891781134076</v>
+        <v>14.59463006539581</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.63908890600208</v>
+        <v>16.58381429699191</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1731737581209441</v>
+        <v>0.173447282599849</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.246094259188379</v>
+        <v>0.2447904242168622</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.312141021333935</v>
+        <v>0.30643912355013</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3165392037572519</v>
+        <v>0.3132568775361239</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3827285205123372</v>
+        <v>0.3973115690559105</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4559335596789152</v>
+        <v>0.4511211911135145</v>
       </c>
     </row>
     <row r="34">
